--- a/시장분석용_정보/시장분석용_4311135000.xlsx
+++ b/시장분석용_정보/시장분석용_4311135000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV30"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>351</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -696,10 +600,10 @@
         <v>2129153369</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4311135000</v>
@@ -708,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>5167337</v>
@@ -720,117 +624,69 @@
         <v>17754</v>
       </c>
       <c r="O2">
-        <v>96.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.74</v>
+        <v>0.51</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="R2">
-        <v>14.5</v>
+        <v>18.39</v>
       </c>
       <c r="S2">
-        <v>20.34</v>
+        <v>22.78</v>
       </c>
       <c r="T2">
-        <v>18.85</v>
+        <v>5.66</v>
       </c>
       <c r="U2">
-        <v>25.91</v>
+        <v>3.36</v>
       </c>
       <c r="V2">
-        <v>16.66</v>
+        <v>8.81</v>
       </c>
       <c r="W2">
-        <v>3.74</v>
+        <v>4.55</v>
       </c>
       <c r="X2">
-        <v>24.72</v>
+        <v>34.57</v>
       </c>
       <c r="Y2">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>34.68</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>36.95</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF2">
-        <v>0.51</v>
-      </c>
-      <c r="AG2">
-        <v>1.37</v>
-      </c>
-      <c r="AH2">
-        <v>18.39</v>
-      </c>
-      <c r="AI2">
-        <v>22.78</v>
-      </c>
-      <c r="AJ2">
-        <v>5.66</v>
-      </c>
-      <c r="AK2">
-        <v>3.36</v>
-      </c>
-      <c r="AL2">
-        <v>8.81</v>
-      </c>
-      <c r="AM2">
-        <v>4.55</v>
-      </c>
-      <c r="AN2">
-        <v>34.57</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>36.95</v>
-      </c>
-      <c r="AS2">
-        <v>48.9</v>
-      </c>
-      <c r="AT2">
-        <v>2.13</v>
-      </c>
-      <c r="AU2">
-        <v>1.8</v>
-      </c>
-      <c r="AV2">
         <v>10.21</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>1676</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -842,10 +698,10 @@
         <v>2129153369</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4311135000</v>
@@ -854,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>2086509</v>
@@ -866,117 +722,69 @@
         <v>9548</v>
       </c>
       <c r="O3">
-        <v>80.34999999999999</v>
+        <v>2.84</v>
       </c>
       <c r="P3">
-        <v>19.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R3">
-        <v>6.86</v>
+        <v>13.59</v>
       </c>
       <c r="S3">
-        <v>10.22</v>
+        <v>18.3</v>
       </c>
       <c r="T3">
-        <v>15.91</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>4.51</v>
+        <v>38.15</v>
       </c>
       <c r="V3">
-        <v>42.84</v>
+        <v>13.19</v>
       </c>
       <c r="W3">
-        <v>19.65</v>
+        <v>3.17</v>
       </c>
       <c r="X3">
-        <v>36.31</v>
+        <v>7.86</v>
       </c>
       <c r="Y3">
-        <v>57.08</v>
+        <v>2.14</v>
       </c>
       <c r="Z3">
-        <v>6.61</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>33.97</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>23.04</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>9.65</v>
       </c>
       <c r="AE3">
-        <v>2.84</v>
+        <v>2</v>
       </c>
       <c r="AF3">
-        <v>1.67</v>
-      </c>
-      <c r="AG3">
-        <v>1.22</v>
-      </c>
-      <c r="AH3">
-        <v>13.59</v>
-      </c>
-      <c r="AI3">
-        <v>18.3</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>38.15</v>
-      </c>
-      <c r="AL3">
-        <v>13.19</v>
-      </c>
-      <c r="AM3">
-        <v>3.17</v>
-      </c>
-      <c r="AN3">
-        <v>7.86</v>
-      </c>
-      <c r="AO3">
-        <v>2.14</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>33.97</v>
-      </c>
-      <c r="AS3">
-        <v>23.04</v>
-      </c>
-      <c r="AT3">
-        <v>9.65</v>
-      </c>
-      <c r="AU3">
-        <v>2</v>
-      </c>
-      <c r="AV3">
         <v>29.2</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>3001</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202003</v>
@@ -988,10 +796,10 @@
         <v>2129153369</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4311135000</v>
@@ -1000,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>4105003</v>
@@ -1012,117 +820,69 @@
         <v>20864</v>
       </c>
       <c r="O4">
-        <v>91.61</v>
+        <v>0.18</v>
       </c>
       <c r="P4">
-        <v>8.390000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="R4">
-        <v>33.03</v>
+        <v>19.45</v>
       </c>
       <c r="S4">
-        <v>6.27</v>
+        <v>22.92</v>
       </c>
       <c r="T4">
-        <v>25.53</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>12.71</v>
+        <v>14.13</v>
       </c>
       <c r="V4">
-        <v>14.07</v>
+        <v>0.54</v>
       </c>
       <c r="W4">
-        <v>8.390000000000001</v>
+        <v>27.14</v>
       </c>
       <c r="X4">
-        <v>33.03</v>
+        <v>12.56</v>
       </c>
       <c r="Y4">
-        <v>56.02</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>10.95</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>17.17</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>28.77</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>30.66</v>
       </c>
       <c r="AE4">
-        <v>0.18</v>
+        <v>11.37</v>
       </c>
       <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>3.07</v>
-      </c>
-      <c r="AH4">
-        <v>19.45</v>
-      </c>
-      <c r="AI4">
-        <v>22.92</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>14.13</v>
-      </c>
-      <c r="AL4">
-        <v>0.54</v>
-      </c>
-      <c r="AM4">
-        <v>27.14</v>
-      </c>
-      <c r="AN4">
-        <v>12.56</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>17.17</v>
-      </c>
-      <c r="AS4">
-        <v>28.77</v>
-      </c>
-      <c r="AT4">
-        <v>30.66</v>
-      </c>
-      <c r="AU4">
-        <v>11.37</v>
-      </c>
-      <c r="AV4">
         <v>12.03</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>4324</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202004</v>
@@ -1134,10 +894,10 @@
         <v>2129153369</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4311135000</v>
@@ -1146,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>1942804</v>
@@ -1158,117 +918,69 @@
         <v>11634</v>
       </c>
       <c r="O5">
-        <v>92.59</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>7.41</v>
+        <v>1.29</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>50.71</v>
+        <v>21.73</v>
       </c>
       <c r="S5">
-        <v>9.4</v>
+        <v>10.53</v>
       </c>
       <c r="T5">
-        <v>4.86</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>5.48</v>
+        <v>2.82</v>
       </c>
       <c r="V5">
-        <v>22.13</v>
+        <v>10.1</v>
       </c>
       <c r="W5">
-        <v>7.41</v>
+        <v>41.98</v>
       </c>
       <c r="X5">
-        <v>16.57</v>
+        <v>11.55</v>
       </c>
       <c r="Y5">
-        <v>30.46</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>52.97</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>22.59</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>13.78</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>18.48</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>42.33</v>
       </c>
       <c r="AF5">
-        <v>1.29</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>21.73</v>
-      </c>
-      <c r="AI5">
-        <v>10.53</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
         <v>2.82</v>
       </c>
-      <c r="AL5">
-        <v>10.1</v>
-      </c>
-      <c r="AM5">
-        <v>41.98</v>
-      </c>
-      <c r="AN5">
-        <v>11.55</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>22.59</v>
-      </c>
-      <c r="AS5">
-        <v>13.78</v>
-      </c>
-      <c r="AT5">
-        <v>18.48</v>
-      </c>
-      <c r="AU5">
-        <v>42.33</v>
-      </c>
-      <c r="AV5">
-        <v>2.82</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>5655</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202005</v>
@@ -1280,10 +992,10 @@
         <v>2129153369</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4311135000</v>
@@ -1292,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>4716482</v>
@@ -1304,117 +1016,69 @@
         <v>23584</v>
       </c>
       <c r="O6">
-        <v>42.64</v>
+        <v>0.17</v>
       </c>
       <c r="P6">
-        <v>57.36</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="R6">
-        <v>12.87</v>
+        <v>31.27</v>
       </c>
       <c r="S6">
-        <v>1.47</v>
+        <v>15.87</v>
       </c>
       <c r="T6">
-        <v>6.86</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>16.59</v>
+        <v>3.73</v>
       </c>
       <c r="V6">
-        <v>13.45</v>
+        <v>13.1</v>
       </c>
       <c r="W6">
-        <v>48.76</v>
+        <v>27.69</v>
       </c>
       <c r="X6">
-        <v>38.15</v>
+        <v>8.01</v>
       </c>
       <c r="Y6">
-        <v>44.89</v>
+        <v>0.17</v>
       </c>
       <c r="Z6">
-        <v>16.96</v>
+        <v>0.17</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>12.63</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>49.7</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>33.61</v>
       </c>
       <c r="AE6">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0.17</v>
-      </c>
-      <c r="AH6">
-        <v>31.27</v>
-      </c>
-      <c r="AI6">
-        <v>15.87</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
         <v>3.73</v>
       </c>
-      <c r="AL6">
-        <v>13.1</v>
-      </c>
-      <c r="AM6">
-        <v>27.69</v>
-      </c>
-      <c r="AN6">
-        <v>8.01</v>
-      </c>
-      <c r="AO6">
-        <v>0.17</v>
-      </c>
-      <c r="AP6">
-        <v>0.17</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>12.63</v>
-      </c>
-      <c r="AS6">
-        <v>49.7</v>
-      </c>
-      <c r="AT6">
-        <v>33.61</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>3.73</v>
-      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>6994</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202006</v>
@@ -1426,10 +1090,10 @@
         <v>2129153369</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4311135000</v>
@@ -1438,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>4780279</v>
@@ -1450,117 +1114,69 @@
         <v>18388</v>
       </c>
       <c r="O7">
-        <v>91.8</v>
+        <v>0.18</v>
       </c>
       <c r="P7">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="R7">
-        <v>9.65</v>
+        <v>18.6</v>
       </c>
       <c r="S7">
-        <v>17.98</v>
+        <v>16.73</v>
       </c>
       <c r="T7">
-        <v>7.54</v>
+        <v>0.37</v>
       </c>
       <c r="U7">
-        <v>29.63</v>
+        <v>10.72</v>
       </c>
       <c r="V7">
-        <v>27.01</v>
+        <v>1.09</v>
       </c>
       <c r="W7">
-        <v>8.199999999999999</v>
+        <v>10.09</v>
       </c>
       <c r="X7">
-        <v>38.27</v>
+        <v>33.76</v>
       </c>
       <c r="Y7">
-        <v>40.66</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>21.07</v>
+        <v>0.77</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>21.63</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>18.06</v>
       </c>
       <c r="AE7">
-        <v>0.18</v>
+        <v>5.44</v>
       </c>
       <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AH7">
-        <v>18.6</v>
-      </c>
-      <c r="AI7">
-        <v>16.73</v>
-      </c>
-      <c r="AJ7">
-        <v>0.37</v>
-      </c>
-      <c r="AK7">
-        <v>10.72</v>
-      </c>
-      <c r="AL7">
-        <v>1.09</v>
-      </c>
-      <c r="AM7">
-        <v>10.09</v>
-      </c>
-      <c r="AN7">
-        <v>33.76</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0.77</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>21.63</v>
-      </c>
-      <c r="AS7">
-        <v>43.9</v>
-      </c>
-      <c r="AT7">
-        <v>18.06</v>
-      </c>
-      <c r="AU7">
-        <v>5.44</v>
-      </c>
-      <c r="AV7">
         <v>10.2</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>8331</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202007</v>
@@ -1572,10 +1188,10 @@
         <v>2129153369</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4311135000</v>
@@ -1584,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>3015693</v>
@@ -1596,117 +1212,69 @@
         <v>13057</v>
       </c>
       <c r="O8">
-        <v>86.65000000000001</v>
+        <v>1.83</v>
       </c>
       <c r="P8">
-        <v>13.35</v>
+        <v>0.84</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>4.98</v>
       </c>
       <c r="R8">
-        <v>6.72</v>
+        <v>11</v>
       </c>
       <c r="S8">
-        <v>2.4</v>
+        <v>30.76</v>
       </c>
       <c r="T8">
-        <v>21.38</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="U8">
-        <v>34.22</v>
+        <v>1.97</v>
       </c>
       <c r="V8">
-        <v>21.93</v>
+        <v>4</v>
       </c>
       <c r="W8">
-        <v>13.35</v>
+        <v>5.1</v>
       </c>
       <c r="X8">
-        <v>39.41</v>
+        <v>30.57</v>
       </c>
       <c r="Y8">
-        <v>45.74</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>14.85</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>25.87</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="AE8">
-        <v>1.83</v>
+        <v>0.84</v>
       </c>
       <c r="AF8">
-        <v>0.84</v>
-      </c>
-      <c r="AG8">
-        <v>4.98</v>
-      </c>
-      <c r="AH8">
-        <v>11</v>
-      </c>
-      <c r="AI8">
-        <v>30.76</v>
-      </c>
-      <c r="AJ8">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="AK8">
-        <v>1.97</v>
-      </c>
-      <c r="AL8">
-        <v>4</v>
-      </c>
-      <c r="AM8">
-        <v>5.1</v>
-      </c>
-      <c r="AN8">
-        <v>30.57</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="AS8">
-        <v>25.87</v>
-      </c>
-      <c r="AT8">
-        <v>5.22</v>
-      </c>
-      <c r="AU8">
-        <v>0.84</v>
-      </c>
-      <c r="AV8">
         <v>2.18</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>9669</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202008</v>
@@ -1718,10 +1286,10 @@
         <v>2129153369</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4311135000</v>
@@ -1730,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>5336047</v>
@@ -1742,117 +1310,69 @@
         <v>24144</v>
       </c>
       <c r="O9">
-        <v>71.3</v>
+        <v>0.92</v>
       </c>
       <c r="P9">
-        <v>28.7</v>
+        <v>1.48</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="R9">
-        <v>31.63</v>
+        <v>34.78</v>
       </c>
       <c r="S9">
-        <v>3.11</v>
+        <v>11.53</v>
       </c>
       <c r="T9">
-        <v>16.89</v>
+        <v>5.54</v>
       </c>
       <c r="U9">
-        <v>9.92</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>12.57</v>
+        <v>3.99</v>
       </c>
       <c r="W9">
-        <v>25.87</v>
+        <v>7.73</v>
       </c>
       <c r="X9">
-        <v>36.61</v>
+        <v>29.87</v>
       </c>
       <c r="Y9">
-        <v>37.66</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>25.73</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>29.36</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>35.63</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>34.24</v>
       </c>
       <c r="AE9">
-        <v>0.92</v>
+        <v>0.39</v>
       </c>
       <c r="AF9">
-        <v>1.48</v>
-      </c>
-      <c r="AG9">
-        <v>4.15</v>
-      </c>
-      <c r="AH9">
-        <v>34.78</v>
-      </c>
-      <c r="AI9">
-        <v>11.53</v>
-      </c>
-      <c r="AJ9">
-        <v>5.54</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>3.99</v>
-      </c>
-      <c r="AM9">
-        <v>7.73</v>
-      </c>
-      <c r="AN9">
-        <v>29.87</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>29.36</v>
-      </c>
-      <c r="AS9">
-        <v>35.63</v>
-      </c>
-      <c r="AT9">
-        <v>34.24</v>
-      </c>
-      <c r="AU9">
         <v>0.39</v>
       </c>
-      <c r="AV9">
-        <v>0.39</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>11009</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202009</v>
@@ -1864,10 +1384,10 @@
         <v>2129153369</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4311135000</v>
@@ -1876,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>5660400</v>
@@ -1888,117 +1408,69 @@
         <v>22700</v>
       </c>
       <c r="O10">
-        <v>80.03</v>
+        <v>0.92</v>
       </c>
       <c r="P10">
-        <v>19.97</v>
+        <v>7.73</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="R10">
-        <v>13.66</v>
+        <v>2.72</v>
       </c>
       <c r="S10">
-        <v>28.61</v>
+        <v>19.4</v>
       </c>
       <c r="T10">
-        <v>20.43</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>8.359999999999999</v>
+        <v>7.23</v>
       </c>
       <c r="V10">
-        <v>8.98</v>
+        <v>18.35</v>
       </c>
       <c r="W10">
-        <v>19.97</v>
+        <v>17.89</v>
       </c>
       <c r="X10">
-        <v>27.61</v>
+        <v>24.58</v>
       </c>
       <c r="Y10">
-        <v>39.27</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>33.12</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>25.52</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>34.38</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>23.47</v>
       </c>
       <c r="AE10">
-        <v>0.92</v>
+        <v>5.26</v>
       </c>
       <c r="AF10">
-        <v>7.73</v>
-      </c>
-      <c r="AG10">
-        <v>1.19</v>
-      </c>
-      <c r="AH10">
-        <v>2.72</v>
-      </c>
-      <c r="AI10">
-        <v>19.4</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>7.23</v>
-      </c>
-      <c r="AL10">
-        <v>18.35</v>
-      </c>
-      <c r="AM10">
-        <v>17.89</v>
-      </c>
-      <c r="AN10">
-        <v>24.58</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>25.52</v>
-      </c>
-      <c r="AS10">
-        <v>34.38</v>
-      </c>
-      <c r="AT10">
-        <v>23.47</v>
-      </c>
-      <c r="AU10">
-        <v>5.26</v>
-      </c>
-      <c r="AV10">
         <v>11.37</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>12350</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202010</v>
@@ -2010,10 +1482,10 @@
         <v>2129153369</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4311135000</v>
@@ -2022,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>2730822</v>
@@ -2034,117 +1506,69 @@
         <v>11313</v>
       </c>
       <c r="O11">
-        <v>76.66</v>
+        <v>0.3</v>
       </c>
       <c r="P11">
-        <v>23.34</v>
+        <v>8.66</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="R11">
-        <v>10.39</v>
+        <v>4.97</v>
       </c>
       <c r="S11">
-        <v>20.88</v>
+        <v>4.53</v>
       </c>
       <c r="T11">
-        <v>10.88</v>
+        <v>12.23</v>
       </c>
       <c r="U11">
-        <v>18.84</v>
+        <v>1.88</v>
       </c>
       <c r="V11">
-        <v>15.67</v>
+        <v>5.93</v>
       </c>
       <c r="W11">
-        <v>23.34</v>
+        <v>23.62</v>
       </c>
       <c r="X11">
-        <v>57.08</v>
+        <v>34.82</v>
       </c>
       <c r="Y11">
-        <v>28.58</v>
+        <v>3.29</v>
       </c>
       <c r="Z11">
-        <v>14.34</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>44.91</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>28.23</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>15.66</v>
       </c>
       <c r="AE11">
-        <v>0.3</v>
+        <v>7.9</v>
       </c>
       <c r="AF11">
-        <v>8.66</v>
-      </c>
-      <c r="AG11">
-        <v>3.07</v>
-      </c>
-      <c r="AH11">
-        <v>4.97</v>
-      </c>
-      <c r="AI11">
-        <v>4.53</v>
-      </c>
-      <c r="AJ11">
-        <v>12.23</v>
-      </c>
-      <c r="AK11">
-        <v>1.88</v>
-      </c>
-      <c r="AL11">
-        <v>5.93</v>
-      </c>
-      <c r="AM11">
-        <v>23.62</v>
-      </c>
-      <c r="AN11">
-        <v>34.82</v>
-      </c>
-      <c r="AO11">
-        <v>3.29</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>44.91</v>
-      </c>
-      <c r="AS11">
-        <v>28.23</v>
-      </c>
-      <c r="AT11">
-        <v>15.66</v>
-      </c>
-      <c r="AU11">
-        <v>7.9</v>
-      </c>
-      <c r="AV11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>13696</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202011</v>
@@ -2156,10 +1580,10 @@
         <v>2129153369</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4311135000</v>
@@ -2168,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>2733942</v>
@@ -2180,117 +1604,69 @@
         <v>13190</v>
       </c>
       <c r="O12">
-        <v>93.8</v>
+        <v>2.75</v>
       </c>
       <c r="P12">
-        <v>6.2</v>
+        <v>1.84</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="R12">
-        <v>11.71</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="S12">
-        <v>33.13</v>
+        <v>18.45</v>
       </c>
       <c r="T12">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>25.61</v>
+        <v>16.7</v>
       </c>
       <c r="V12">
-        <v>22.08</v>
+        <v>2.38</v>
       </c>
       <c r="W12">
-        <v>6.2</v>
+        <v>18.6</v>
       </c>
       <c r="X12">
-        <v>34.42</v>
+        <v>26.99</v>
       </c>
       <c r="Y12">
-        <v>60.44</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>5.14</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>25.09</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>53.22</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="AE12">
-        <v>2.75</v>
+        <v>1.61</v>
       </c>
       <c r="AF12">
-        <v>1.84</v>
-      </c>
-      <c r="AG12">
-        <v>3.49</v>
-      </c>
-      <c r="AH12">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AI12">
-        <v>18.45</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>16.7</v>
-      </c>
-      <c r="AL12">
-        <v>2.38</v>
-      </c>
-      <c r="AM12">
-        <v>18.6</v>
-      </c>
-      <c r="AN12">
-        <v>26.99</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>25.09</v>
-      </c>
-      <c r="AS12">
-        <v>53.22</v>
-      </c>
-      <c r="AT12">
-        <v>4.19</v>
-      </c>
-      <c r="AU12">
-        <v>1.61</v>
-      </c>
-      <c r="AV12">
         <v>15.9</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>15044</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202012</v>
@@ -2302,10 +1678,10 @@
         <v>2129153369</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4311135000</v>
@@ -2314,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>3996398</v>
@@ -2326,117 +1702,69 @@
         <v>18060</v>
       </c>
       <c r="O13">
-        <v>95.31</v>
+        <v>2.68</v>
       </c>
       <c r="P13">
-        <v>4.69</v>
+        <v>0.54</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="R13">
-        <v>37.16</v>
+        <v>32.09</v>
       </c>
       <c r="S13">
-        <v>8.77</v>
+        <v>19.8</v>
       </c>
       <c r="T13">
-        <v>30.14</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>13.51</v>
+        <v>0.98</v>
       </c>
       <c r="V13">
-        <v>5.73</v>
+        <v>16.01</v>
       </c>
       <c r="W13">
-        <v>4.69</v>
+        <v>1.27</v>
       </c>
       <c r="X13">
-        <v>40.97</v>
+        <v>24.54</v>
       </c>
       <c r="Y13">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>40.23</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>27.36</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>29.42</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>37.84</v>
       </c>
       <c r="AE13">
-        <v>2.68</v>
+        <v>4.83</v>
       </c>
       <c r="AF13">
         <v>0.54</v>
       </c>
-      <c r="AG13">
-        <v>2.09</v>
-      </c>
-      <c r="AH13">
-        <v>32.09</v>
-      </c>
-      <c r="AI13">
-        <v>19.8</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0.98</v>
-      </c>
-      <c r="AL13">
-        <v>16.01</v>
-      </c>
-      <c r="AM13">
-        <v>1.27</v>
-      </c>
-      <c r="AN13">
-        <v>24.54</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>27.36</v>
-      </c>
-      <c r="AS13">
-        <v>29.42</v>
-      </c>
-      <c r="AT13">
-        <v>37.84</v>
-      </c>
-      <c r="AU13">
-        <v>4.83</v>
-      </c>
-      <c r="AV13">
-        <v>0.54</v>
-      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>16392</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>202101</v>
@@ -2448,10 +1776,10 @@
         <v>2129153369</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>4311135000</v>
@@ -2460,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>2716857</v>
@@ -2472,117 +1800,69 @@
         <v>10582</v>
       </c>
       <c r="O14">
-        <v>84.48</v>
+        <v>1.12</v>
       </c>
       <c r="P14">
-        <v>15.52</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="R14">
-        <v>20.05</v>
+        <v>17.09</v>
       </c>
       <c r="S14">
-        <v>22.08</v>
+        <v>18.75</v>
       </c>
       <c r="T14">
-        <v>10.53</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>23.02</v>
+        <v>1.23</v>
       </c>
       <c r="V14">
-        <v>8.81</v>
+        <v>22.81</v>
       </c>
       <c r="W14">
-        <v>15.52</v>
+        <v>6.62</v>
       </c>
       <c r="X14">
-        <v>52.73</v>
+        <v>29.73</v>
       </c>
       <c r="Y14">
-        <v>30.73</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>16.54</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>26.38</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>38.93</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>22.28</v>
       </c>
       <c r="AE14">
-        <v>1.12</v>
+        <v>12.4</v>
       </c>
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14">
-        <v>2.66</v>
-      </c>
-      <c r="AH14">
-        <v>17.09</v>
-      </c>
-      <c r="AI14">
-        <v>18.75</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>1.23</v>
-      </c>
-      <c r="AL14">
-        <v>22.81</v>
-      </c>
-      <c r="AM14">
-        <v>6.62</v>
-      </c>
-      <c r="AN14">
-        <v>29.73</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>26.38</v>
-      </c>
-      <c r="AS14">
-        <v>38.93</v>
-      </c>
-      <c r="AT14">
-        <v>22.28</v>
-      </c>
-      <c r="AU14">
-        <v>12.4</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>17741</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>202102</v>
@@ -2594,10 +1874,10 @@
         <v>2129153369</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>4311135000</v>
@@ -2606,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <v>1760387</v>
@@ -2618,117 +1898,69 @@
         <v>10403</v>
       </c>
       <c r="O15">
-        <v>78.04000000000001</v>
+        <v>1.72</v>
       </c>
       <c r="P15">
-        <v>21.96</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="R15">
-        <v>47.83</v>
+        <v>7.6</v>
       </c>
       <c r="S15">
-        <v>10.98</v>
+        <v>15.85</v>
       </c>
       <c r="T15">
-        <v>6.23</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>4.52</v>
       </c>
       <c r="V15">
-        <v>12.99</v>
+        <v>7.66</v>
       </c>
       <c r="W15">
-        <v>21.96</v>
+        <v>3.09</v>
       </c>
       <c r="X15">
-        <v>37.93</v>
+        <v>49.61</v>
       </c>
       <c r="Y15">
-        <v>52.69</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>9.380000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>36.88</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>57.44</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE15">
-        <v>1.72</v>
+        <v>4.57</v>
       </c>
       <c r="AF15">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="AG15">
-        <v>1.43</v>
-      </c>
-      <c r="AH15">
-        <v>7.6</v>
-      </c>
-      <c r="AI15">
-        <v>15.85</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>4.52</v>
-      </c>
-      <c r="AL15">
-        <v>7.66</v>
-      </c>
-      <c r="AM15">
-        <v>3.09</v>
-      </c>
-      <c r="AN15">
-        <v>49.61</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>36.88</v>
-      </c>
-      <c r="AS15">
-        <v>57.44</v>
-      </c>
-      <c r="AT15">
-        <v>1.11</v>
-      </c>
-      <c r="AU15">
-        <v>4.57</v>
-      </c>
-      <c r="AV15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>19092</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>202103</v>
@@ -2740,10 +1972,10 @@
         <v>2129153369</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>4311135000</v>
@@ -2752,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>4161291</v>
@@ -2764,117 +1996,69 @@
         <v>13659</v>
       </c>
       <c r="O16">
-        <v>78.87</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>21.13</v>
+        <v>1.02</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="R16">
-        <v>16.94</v>
+        <v>9.6</v>
       </c>
       <c r="S16">
-        <v>7.47</v>
+        <v>34.41</v>
       </c>
       <c r="T16">
-        <v>7.63</v>
+        <v>1.49</v>
       </c>
       <c r="U16">
-        <v>7.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="V16">
-        <v>39.71</v>
+        <v>16.54</v>
       </c>
       <c r="W16">
-        <v>21.13</v>
+        <v>3.92</v>
       </c>
       <c r="X16">
-        <v>47.3</v>
+        <v>30.2</v>
       </c>
       <c r="Y16">
-        <v>37.82</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>14.88</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>46.82</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>8.77</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF16">
-        <v>1.02</v>
-      </c>
-      <c r="AG16">
-        <v>1.87</v>
-      </c>
-      <c r="AH16">
-        <v>9.6</v>
-      </c>
-      <c r="AI16">
-        <v>34.41</v>
-      </c>
-      <c r="AJ16">
-        <v>1.49</v>
-      </c>
-      <c r="AK16">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AL16">
-        <v>16.54</v>
-      </c>
-      <c r="AM16">
-        <v>3.92</v>
-      </c>
-      <c r="AN16">
-        <v>30.2</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>46.82</v>
-      </c>
-      <c r="AS16">
-        <v>42</v>
-      </c>
-      <c r="AT16">
-        <v>8.77</v>
-      </c>
-      <c r="AU16">
-        <v>1.72</v>
-      </c>
-      <c r="AV16">
         <v>0.68</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>20442</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>202104</v>
@@ -2886,10 +2070,10 @@
         <v>2129153369</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>4311135000</v>
@@ -2898,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L17">
         <v>3868265</v>
@@ -2910,117 +2094,69 @@
         <v>13787</v>
       </c>
       <c r="O17">
-        <v>90.45999999999999</v>
+        <v>1.78</v>
       </c>
       <c r="P17">
-        <v>9.539999999999999</v>
+        <v>16.56</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>10.62</v>
       </c>
       <c r="R17">
-        <v>15.29</v>
+        <v>21.13</v>
       </c>
       <c r="S17">
-        <v>23.88</v>
+        <v>30.52</v>
       </c>
       <c r="T17">
-        <v>4.61</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>43.88</v>
+        <v>13.08</v>
       </c>
       <c r="W17">
-        <v>9.539999999999999</v>
+        <v>5.34</v>
       </c>
       <c r="X17">
-        <v>14.49</v>
+        <v>0.97</v>
       </c>
       <c r="Y17">
-        <v>36.64</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>48.87</v>
+        <v>5.95</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>14.32</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>41.91</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>37.27</v>
       </c>
       <c r="AE17">
-        <v>1.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF17">
-        <v>16.56</v>
-      </c>
-      <c r="AG17">
-        <v>10.62</v>
-      </c>
-      <c r="AH17">
-        <v>21.13</v>
-      </c>
-      <c r="AI17">
-        <v>30.52</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>13.08</v>
-      </c>
-      <c r="AM17">
-        <v>5.34</v>
-      </c>
-      <c r="AN17">
-        <v>0.97</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>5.95</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>14.32</v>
-      </c>
-      <c r="AS17">
-        <v>41.91</v>
-      </c>
-      <c r="AT17">
-        <v>37.27</v>
-      </c>
-      <c r="AU17">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AV17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>21800</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>202105</v>
@@ -3032,10 +2168,10 @@
         <v>2129153369</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>4311135000</v>
@@ -3044,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>2684126</v>
@@ -3056,117 +2192,69 @@
         <v>9622</v>
       </c>
       <c r="O18">
-        <v>77.52</v>
+        <v>2.98</v>
       </c>
       <c r="P18">
-        <v>22.48</v>
+        <v>0.79</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>6.12</v>
       </c>
       <c r="R18">
-        <v>24.67</v>
+        <v>21.11</v>
       </c>
       <c r="S18">
-        <v>18.32</v>
+        <v>32.24</v>
       </c>
       <c r="T18">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>5.14</v>
+        <v>12.28</v>
       </c>
       <c r="V18">
-        <v>19.05</v>
+        <v>7.83</v>
       </c>
       <c r="W18">
-        <v>22.48</v>
+        <v>8.41</v>
       </c>
       <c r="X18">
-        <v>20.36</v>
+        <v>8.24</v>
       </c>
       <c r="Y18">
-        <v>44.77</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>34.87</v>
+        <v>1.6</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>14.03</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>48.73</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>9.74</v>
       </c>
       <c r="AE18">
-        <v>2.98</v>
+        <v>23.98</v>
       </c>
       <c r="AF18">
-        <v>0.79</v>
-      </c>
-      <c r="AG18">
-        <v>6.12</v>
-      </c>
-      <c r="AH18">
-        <v>21.11</v>
-      </c>
-      <c r="AI18">
-        <v>32.24</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>12.28</v>
-      </c>
-      <c r="AL18">
-        <v>7.83</v>
-      </c>
-      <c r="AM18">
-        <v>8.41</v>
-      </c>
-      <c r="AN18">
-        <v>8.24</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>1.6</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>14.03</v>
-      </c>
-      <c r="AS18">
-        <v>48.73</v>
-      </c>
-      <c r="AT18">
-        <v>9.74</v>
-      </c>
-      <c r="AU18">
-        <v>23.98</v>
-      </c>
-      <c r="AV18">
         <v>1.92</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>23159</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>202106</v>
@@ -3178,10 +2266,10 @@
         <v>2129153369</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>4311135000</v>
@@ -3190,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L19">
         <v>4180072</v>
@@ -3202,117 +2290,69 @@
         <v>12801</v>
       </c>
       <c r="O19">
-        <v>75.67</v>
+        <v>1.54</v>
       </c>
       <c r="P19">
-        <v>24.33</v>
+        <v>10.43</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="R19">
-        <v>17.53</v>
+        <v>24.14</v>
       </c>
       <c r="S19">
-        <v>19.57</v>
+        <v>6.05</v>
       </c>
       <c r="T19">
-        <v>19.76</v>
+        <v>0.51</v>
       </c>
       <c r="U19">
-        <v>9.6</v>
+        <v>7.84</v>
       </c>
       <c r="V19">
-        <v>9.210000000000001</v>
+        <v>16.08</v>
       </c>
       <c r="W19">
-        <v>24.33</v>
+        <v>5.03</v>
       </c>
       <c r="X19">
-        <v>24.84</v>
+        <v>25.1</v>
       </c>
       <c r="Y19">
-        <v>42.95</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>32.21</v>
+        <v>0.19</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>27.77</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>54.3</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>10.48</v>
       </c>
       <c r="AE19">
-        <v>1.54</v>
+        <v>7.27</v>
       </c>
       <c r="AF19">
-        <v>10.43</v>
-      </c>
-      <c r="AG19">
-        <v>3.29</v>
-      </c>
-      <c r="AH19">
-        <v>24.14</v>
-      </c>
-      <c r="AI19">
-        <v>6.05</v>
-      </c>
-      <c r="AJ19">
-        <v>0.51</v>
-      </c>
-      <c r="AK19">
-        <v>7.84</v>
-      </c>
-      <c r="AL19">
-        <v>16.08</v>
-      </c>
-      <c r="AM19">
-        <v>5.03</v>
-      </c>
-      <c r="AN19">
-        <v>25.1</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0.19</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>27.77</v>
-      </c>
-      <c r="AS19">
-        <v>54.3</v>
-      </c>
-      <c r="AT19">
-        <v>10.48</v>
-      </c>
-      <c r="AU19">
-        <v>7.27</v>
-      </c>
-      <c r="AV19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>24531</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>202107</v>
@@ -3324,10 +2364,10 @@
         <v>2129153369</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>4311135000</v>
@@ -3336,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L20">
         <v>4891792</v>
@@ -3348,117 +2388,69 @@
         <v>18163</v>
       </c>
       <c r="O20">
-        <v>80.63</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>19.37</v>
+        <v>1.17</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>7.93</v>
       </c>
       <c r="R20">
-        <v>18.57</v>
+        <v>29.85</v>
       </c>
       <c r="S20">
-        <v>29.89</v>
+        <v>19.67</v>
       </c>
       <c r="T20">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>7.93</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>17.4</v>
+        <v>1.05</v>
       </c>
       <c r="W20">
-        <v>19.37</v>
+        <v>14.73</v>
       </c>
       <c r="X20">
-        <v>39.67</v>
+        <v>25.61</v>
       </c>
       <c r="Y20">
-        <v>23.33</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>10.03</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>30.65</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>30.45</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="AF20">
-        <v>1.17</v>
-      </c>
-      <c r="AG20">
-        <v>7.93</v>
-      </c>
-      <c r="AH20">
-        <v>29.85</v>
-      </c>
-      <c r="AI20">
-        <v>19.67</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>1.05</v>
-      </c>
-      <c r="AM20">
-        <v>14.73</v>
-      </c>
-      <c r="AN20">
-        <v>25.61</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>10.03</v>
-      </c>
-      <c r="AS20">
-        <v>30.65</v>
-      </c>
-      <c r="AT20">
-        <v>30.45</v>
-      </c>
-      <c r="AU20">
-        <v>12.3</v>
-      </c>
-      <c r="AV20">
         <v>16.57</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>25896</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>202108</v>
@@ -3470,10 +2462,10 @@
         <v>2129153369</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>4311135000</v>
@@ -3482,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L21">
         <v>4226796</v>
@@ -3494,117 +2486,69 @@
         <v>16100</v>
       </c>
       <c r="O21">
-        <v>94.25</v>
+        <v>0.55</v>
       </c>
       <c r="P21">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R21">
-        <v>25.22</v>
+        <v>40.61</v>
       </c>
       <c r="S21">
-        <v>8.34</v>
+        <v>34.76</v>
       </c>
       <c r="T21">
-        <v>7.7</v>
+        <v>2.46</v>
       </c>
       <c r="U21">
-        <v>7.48</v>
+        <v>2.11</v>
       </c>
       <c r="V21">
-        <v>47.01</v>
+        <v>4.98</v>
       </c>
       <c r="W21">
-        <v>4.25</v>
+        <v>3.51</v>
       </c>
       <c r="X21">
-        <v>28.25</v>
+        <v>9.34</v>
       </c>
       <c r="Y21">
-        <v>51.24</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>20.51</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>19.25</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>14.05</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>23.22</v>
       </c>
       <c r="AE21">
-        <v>0.55</v>
+        <v>4.66</v>
       </c>
       <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>1.67</v>
-      </c>
-      <c r="AH21">
-        <v>40.61</v>
-      </c>
-      <c r="AI21">
-        <v>34.76</v>
-      </c>
-      <c r="AJ21">
-        <v>2.46</v>
-      </c>
-      <c r="AK21">
-        <v>2.11</v>
-      </c>
-      <c r="AL21">
-        <v>4.98</v>
-      </c>
-      <c r="AM21">
-        <v>3.51</v>
-      </c>
-      <c r="AN21">
-        <v>9.34</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>19.25</v>
-      </c>
-      <c r="AS21">
-        <v>14.05</v>
-      </c>
-      <c r="AT21">
-        <v>23.22</v>
-      </c>
-      <c r="AU21">
-        <v>4.66</v>
-      </c>
-      <c r="AV21">
         <v>38.82</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>27270</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>202109</v>
@@ -3616,10 +2560,10 @@
         <v>2129153369</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I22">
         <v>4311135000</v>
@@ -3628,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L22">
         <v>3096806</v>
@@ -3640,117 +2584,69 @@
         <v>13476</v>
       </c>
       <c r="O22">
-        <v>69.36</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>30.64</v>
+        <v>2.97</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="R22">
-        <v>9.119999999999999</v>
+        <v>23.13</v>
       </c>
       <c r="S22">
-        <v>9.56</v>
+        <v>33.45</v>
       </c>
       <c r="T22">
-        <v>13.27</v>
+        <v>2.31</v>
       </c>
       <c r="U22">
-        <v>32.32</v>
+        <v>3.25</v>
       </c>
       <c r="V22">
-        <v>5.11</v>
+        <v>3.13</v>
       </c>
       <c r="W22">
-        <v>30.64</v>
+        <v>15.62</v>
       </c>
       <c r="X22">
-        <v>47.46</v>
+        <v>14.91</v>
       </c>
       <c r="Y22">
-        <v>27.24</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>25.3</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>42.1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>30.23</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>23.96</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>3.71</v>
       </c>
       <c r="AF22">
-        <v>2.97</v>
-      </c>
-      <c r="AG22">
-        <v>1.24</v>
-      </c>
-      <c r="AH22">
-        <v>23.13</v>
-      </c>
-      <c r="AI22">
-        <v>33.45</v>
-      </c>
-      <c r="AJ22">
-        <v>2.31</v>
-      </c>
-      <c r="AK22">
-        <v>3.25</v>
-      </c>
-      <c r="AL22">
-        <v>3.13</v>
-      </c>
-      <c r="AM22">
-        <v>15.62</v>
-      </c>
-      <c r="AN22">
-        <v>14.91</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>42.1</v>
-      </c>
-      <c r="AS22">
-        <v>30.23</v>
-      </c>
-      <c r="AT22">
-        <v>23.96</v>
-      </c>
-      <c r="AU22">
-        <v>3.71</v>
-      </c>
-      <c r="AV22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>28644</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>202110</v>
@@ -3762,10 +2658,10 @@
         <v>2129153369</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>4311135000</v>
@@ -3774,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L23">
         <v>5121929</v>
@@ -3786,117 +2682,69 @@
         <v>19004</v>
       </c>
       <c r="O23">
-        <v>70.05</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>29.95</v>
+        <v>0.55</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>6.27</v>
       </c>
       <c r="R23">
-        <v>13.16</v>
+        <v>9.25</v>
       </c>
       <c r="S23">
-        <v>9.98</v>
+        <v>30.73</v>
       </c>
       <c r="T23">
-        <v>25.18</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>12.78</v>
+        <v>1.89</v>
       </c>
       <c r="V23">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="W23">
-        <v>28.79</v>
+        <v>30.56</v>
       </c>
       <c r="X23">
-        <v>25.44</v>
+        <v>19.73</v>
       </c>
       <c r="Y23">
-        <v>65.87</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>8.69</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>28.75</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>19.79</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>27.24</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>24.23</v>
       </c>
       <c r="AF23">
-        <v>0.55</v>
-      </c>
-      <c r="AG23">
-        <v>6.27</v>
-      </c>
-      <c r="AH23">
-        <v>9.25</v>
-      </c>
-      <c r="AI23">
-        <v>30.73</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>1.89</v>
-      </c>
-      <c r="AL23">
-        <v>1.01</v>
-      </c>
-      <c r="AM23">
-        <v>30.56</v>
-      </c>
-      <c r="AN23">
-        <v>19.73</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>28.75</v>
-      </c>
-      <c r="AS23">
-        <v>19.79</v>
-      </c>
-      <c r="AT23">
-        <v>27.24</v>
-      </c>
-      <c r="AU23">
-        <v>24.23</v>
-      </c>
-      <c r="AV23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>30023</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>202111</v>
@@ -3908,10 +2756,10 @@
         <v>2129153369</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>4311135000</v>
@@ -3920,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L24">
         <v>3385434</v>
@@ -3932,117 +2780,69 @@
         <v>13035</v>
       </c>
       <c r="O24">
-        <v>90.86</v>
+        <v>0.77</v>
       </c>
       <c r="P24">
-        <v>9.140000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>30.5</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="S24">
-        <v>14.26</v>
+        <v>37.72</v>
       </c>
       <c r="T24">
-        <v>4.73</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>36.61</v>
+        <v>9.02</v>
       </c>
       <c r="V24">
-        <v>4.76</v>
+        <v>5.78</v>
       </c>
       <c r="W24">
-        <v>9.140000000000001</v>
+        <v>17.27</v>
       </c>
       <c r="X24">
-        <v>30.56</v>
+        <v>18.29</v>
       </c>
       <c r="Y24">
-        <v>44.43</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>19.74</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>47.61</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>12.46</v>
       </c>
       <c r="AE24">
-        <v>0.77</v>
+        <v>2.33</v>
       </c>
       <c r="AF24">
-        <v>1.28</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="AI24">
-        <v>37.72</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>9.02</v>
-      </c>
-      <c r="AL24">
-        <v>5.78</v>
-      </c>
-      <c r="AM24">
-        <v>17.27</v>
-      </c>
-      <c r="AN24">
-        <v>18.29</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>19.74</v>
-      </c>
-      <c r="AS24">
-        <v>47.61</v>
-      </c>
-      <c r="AT24">
-        <v>12.46</v>
-      </c>
-      <c r="AU24">
-        <v>2.33</v>
-      </c>
-      <c r="AV24">
         <v>17.85</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>31409</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>202112</v>
@@ -4054,10 +2854,10 @@
         <v>2129153369</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I25">
         <v>4311135000</v>
@@ -4066,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L25">
         <v>3257221</v>
@@ -4078,117 +2878,69 @@
         <v>15663</v>
       </c>
       <c r="O25">
-        <v>64.87</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>35.13</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="R25">
-        <v>13.6</v>
+        <v>12.5</v>
       </c>
       <c r="S25">
-        <v>6.56</v>
+        <v>35.2</v>
       </c>
       <c r="T25">
-        <v>2.49</v>
+        <v>1.53</v>
       </c>
       <c r="U25">
-        <v>36.03</v>
+        <v>4.71</v>
       </c>
       <c r="V25">
-        <v>6.19</v>
+        <v>1.34</v>
       </c>
       <c r="W25">
-        <v>35.13</v>
+        <v>4.17</v>
       </c>
       <c r="X25">
-        <v>32.32</v>
+        <v>37.32</v>
       </c>
       <c r="Y25">
-        <v>48.72</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>18.96</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>26.27</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>44.64</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>24.96</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AF25">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AG25">
-        <v>2.68</v>
-      </c>
-      <c r="AH25">
-        <v>12.5</v>
-      </c>
-      <c r="AI25">
-        <v>35.2</v>
-      </c>
-      <c r="AJ25">
-        <v>1.53</v>
-      </c>
-      <c r="AK25">
-        <v>4.71</v>
-      </c>
-      <c r="AL25">
-        <v>1.34</v>
-      </c>
-      <c r="AM25">
-        <v>4.17</v>
-      </c>
-      <c r="AN25">
-        <v>37.32</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>26.27</v>
-      </c>
-      <c r="AS25">
-        <v>44.64</v>
-      </c>
-      <c r="AT25">
-        <v>24.96</v>
-      </c>
-      <c r="AU25">
-        <v>2.6</v>
-      </c>
-      <c r="AV25">
         <v>1.52</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>32792</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>202201</v>
@@ -4200,10 +2952,10 @@
         <v>2129153369</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I26">
         <v>4311135000</v>
@@ -4212,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L26">
         <v>2958893</v>
@@ -4224,117 +2976,69 @@
         <v>9544</v>
       </c>
       <c r="O26">
-        <v>91.5</v>
+        <v>3.62</v>
       </c>
       <c r="P26">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>16.55</v>
       </c>
       <c r="R26">
-        <v>15.03</v>
+        <v>11.34</v>
       </c>
       <c r="S26">
-        <v>6.06</v>
+        <v>43.79</v>
       </c>
       <c r="T26">
-        <v>20.51</v>
+        <v>1.18</v>
       </c>
       <c r="U26">
-        <v>41.99</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>8.5</v>
+        <v>4.67</v>
       </c>
       <c r="X26">
-        <v>17.22</v>
+        <v>18.85</v>
       </c>
       <c r="Y26">
-        <v>35.44</v>
+        <v>4.46</v>
       </c>
       <c r="Z26">
-        <v>47.34</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>23.75</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>49.45</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>16.71</v>
       </c>
       <c r="AE26">
-        <v>3.62</v>
+        <v>4.75</v>
       </c>
       <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>16.55</v>
-      </c>
-      <c r="AH26">
-        <v>11.34</v>
-      </c>
-      <c r="AI26">
-        <v>43.79</v>
-      </c>
-      <c r="AJ26">
-        <v>1.18</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>4.67</v>
-      </c>
-      <c r="AN26">
-        <v>18.85</v>
-      </c>
-      <c r="AO26">
-        <v>4.46</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>23.75</v>
-      </c>
-      <c r="AS26">
-        <v>49.45</v>
-      </c>
-      <c r="AT26">
-        <v>16.71</v>
-      </c>
-      <c r="AU26">
-        <v>4.75</v>
-      </c>
-      <c r="AV26">
         <v>0.89</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>34175</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>202202</v>
@@ -4346,10 +3050,10 @@
         <v>2129153369</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I27">
         <v>4311135000</v>
@@ -4358,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L27">
         <v>2826089</v>
@@ -4370,117 +3074,69 @@
         <v>8899</v>
       </c>
       <c r="O27">
-        <v>82.29000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="P27">
-        <v>17.71</v>
+        <v>5.01</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="R27">
-        <v>23.29</v>
+        <v>1.88</v>
       </c>
       <c r="S27">
-        <v>36.42</v>
+        <v>14.25</v>
       </c>
       <c r="T27">
-        <v>6.61</v>
+        <v>3.92</v>
       </c>
       <c r="U27">
-        <v>6.28</v>
+        <v>1.65</v>
       </c>
       <c r="V27">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>17.71</v>
+        <v>11.52</v>
       </c>
       <c r="X27">
-        <v>44.68</v>
+        <v>59.62</v>
       </c>
       <c r="Y27">
-        <v>47.48</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>7.85</v>
+        <v>2.03</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>19.41</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>21.66</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>52.24</v>
       </c>
       <c r="AE27">
-        <v>1.29</v>
+        <v>4.66</v>
       </c>
       <c r="AF27">
-        <v>5.01</v>
-      </c>
-      <c r="AG27">
-        <v>0.86</v>
-      </c>
-      <c r="AH27">
-        <v>1.88</v>
-      </c>
-      <c r="AI27">
-        <v>14.25</v>
-      </c>
-      <c r="AJ27">
-        <v>3.92</v>
-      </c>
-      <c r="AK27">
-        <v>1.65</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>11.52</v>
-      </c>
-      <c r="AN27">
-        <v>59.62</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>2.03</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>19.41</v>
-      </c>
-      <c r="AS27">
-        <v>21.66</v>
-      </c>
-      <c r="AT27">
-        <v>52.24</v>
-      </c>
-      <c r="AU27">
-        <v>4.66</v>
-      </c>
-      <c r="AV27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>35557</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>202203</v>
@@ -4492,10 +3148,10 @@
         <v>2129153369</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I28">
         <v>4311135000</v>
@@ -4504,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L28">
         <v>3576197</v>
@@ -4516,117 +3172,69 @@
         <v>8083</v>
       </c>
       <c r="O28">
-        <v>78.03</v>
+        <v>1.39</v>
       </c>
       <c r="P28">
-        <v>21.97</v>
+        <v>8.32</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="R28">
-        <v>16.99</v>
+        <v>23.87</v>
       </c>
       <c r="S28">
-        <v>21.43</v>
+        <v>21.93</v>
       </c>
       <c r="T28">
-        <v>15.31</v>
+        <v>4.25</v>
       </c>
       <c r="U28">
-        <v>24.3</v>
+        <v>5.31</v>
       </c>
       <c r="V28">
-        <v>5.63</v>
+        <v>5.17</v>
       </c>
       <c r="W28">
-        <v>16.34</v>
+        <v>3.69</v>
       </c>
       <c r="X28">
-        <v>37.47</v>
+        <v>21.74</v>
       </c>
       <c r="Y28">
-        <v>37.43</v>
+        <v>0.95</v>
       </c>
       <c r="Z28">
-        <v>25.1</v>
+        <v>0.64</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>32.26</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>29.93</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>29.25</v>
       </c>
       <c r="AE28">
-        <v>1.39</v>
+        <v>5.23</v>
       </c>
       <c r="AF28">
-        <v>8.32</v>
-      </c>
-      <c r="AG28">
-        <v>4.33</v>
-      </c>
-      <c r="AH28">
-        <v>23.87</v>
-      </c>
-      <c r="AI28">
-        <v>21.93</v>
-      </c>
-      <c r="AJ28">
-        <v>4.25</v>
-      </c>
-      <c r="AK28">
-        <v>5.31</v>
-      </c>
-      <c r="AL28">
-        <v>5.17</v>
-      </c>
-      <c r="AM28">
-        <v>3.69</v>
-      </c>
-      <c r="AN28">
-        <v>21.74</v>
-      </c>
-      <c r="AO28">
-        <v>0.95</v>
-      </c>
-      <c r="AP28">
-        <v>0.64</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>32.26</v>
-      </c>
-      <c r="AS28">
-        <v>29.93</v>
-      </c>
-      <c r="AT28">
-        <v>29.25</v>
-      </c>
-      <c r="AU28">
-        <v>5.23</v>
-      </c>
-      <c r="AV28">
         <v>1.72</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>36932</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>202204</v>
@@ -4638,10 +3246,10 @@
         <v>2129153369</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I29">
         <v>4311135000</v>
@@ -4650,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L29">
         <v>4774416</v>
@@ -4662,117 +3270,69 @@
         <v>11065</v>
       </c>
       <c r="O29">
-        <v>63.58</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>36.42</v>
+        <v>0.55</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="R29">
-        <v>4.9</v>
+        <v>5.92</v>
       </c>
       <c r="S29">
-        <v>12.98</v>
+        <v>33.48</v>
       </c>
       <c r="T29">
-        <v>4.51</v>
+        <v>7.72</v>
       </c>
       <c r="U29">
-        <v>25.45</v>
+        <v>6.23</v>
       </c>
       <c r="V29">
-        <v>15.74</v>
+        <v>3.02</v>
       </c>
       <c r="W29">
-        <v>36.42</v>
+        <v>2.95</v>
       </c>
       <c r="X29">
-        <v>43.26</v>
+        <v>36.58</v>
       </c>
       <c r="Y29">
-        <v>27.64</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>29.1</v>
+        <v>7.72</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>20.13</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>53.35</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>17.54</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF29">
-        <v>0.55</v>
-      </c>
-      <c r="AG29">
-        <v>3.55</v>
-      </c>
-      <c r="AH29">
-        <v>5.92</v>
-      </c>
-      <c r="AI29">
-        <v>33.48</v>
-      </c>
-      <c r="AJ29">
-        <v>7.72</v>
-      </c>
-      <c r="AK29">
-        <v>6.23</v>
-      </c>
-      <c r="AL29">
-        <v>3.02</v>
-      </c>
-      <c r="AM29">
-        <v>2.95</v>
-      </c>
-      <c r="AN29">
-        <v>36.58</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>7.72</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>20.13</v>
-      </c>
-      <c r="AS29">
-        <v>53.35</v>
-      </c>
-      <c r="AT29">
-        <v>17.54</v>
-      </c>
-      <c r="AU29">
-        <v>1.11</v>
-      </c>
-      <c r="AV29">
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>38315</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>202205</v>
@@ -4784,10 +3344,10 @@
         <v>2129153369</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I30">
         <v>4311135000</v>
@@ -4796,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L30">
         <v>3543516</v>
@@ -4808,105 +3368,57 @@
         <v>9748</v>
       </c>
       <c r="O30">
-        <v>94.84</v>
+        <v>2.62</v>
       </c>
       <c r="P30">
-        <v>5.16</v>
+        <v>4.78</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="R30">
-        <v>31.08</v>
+        <v>13.69</v>
       </c>
       <c r="S30">
-        <v>22.97</v>
+        <v>51.84</v>
       </c>
       <c r="T30">
-        <v>20.84</v>
+        <v>2.78</v>
       </c>
       <c r="U30">
-        <v>3.43</v>
+        <v>0.77</v>
       </c>
       <c r="V30">
-        <v>16.52</v>
+        <v>1.37</v>
       </c>
       <c r="W30">
-        <v>5.16</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30">
-        <v>37.79</v>
+        <v>10.31</v>
       </c>
       <c r="Y30">
-        <v>50.25</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>11.96</v>
+        <v>0.88</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>45.26</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>34.36</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>11.26</v>
       </c>
       <c r="AE30">
-        <v>2.62</v>
+        <v>6.6</v>
       </c>
       <c r="AF30">
-        <v>4.78</v>
-      </c>
-      <c r="AG30">
-        <v>3.53</v>
-      </c>
-      <c r="AH30">
-        <v>13.69</v>
-      </c>
-      <c r="AI30">
-        <v>51.84</v>
-      </c>
-      <c r="AJ30">
-        <v>2.78</v>
-      </c>
-      <c r="AK30">
-        <v>0.77</v>
-      </c>
-      <c r="AL30">
-        <v>1.37</v>
-      </c>
-      <c r="AM30">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AN30">
-        <v>10.31</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0.88</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>45.26</v>
-      </c>
-      <c r="AS30">
-        <v>34.36</v>
-      </c>
-      <c r="AT30">
-        <v>11.26</v>
-      </c>
-      <c r="AU30">
-        <v>6.6</v>
-      </c>
-      <c r="AV30">
         <v>1.64</v>
       </c>
     </row>
